--- a/mosip_master/xlsx/identity_schema.xlsx
+++ b/mosip_master/xlsx/identity_schema.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chith\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP\Country Details\Seirra Leone\SLE_Master_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D27D2B-9719-4D11-987B-5C3F76F26E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4B2A97-FEA6-4E44-B7A9-AC63A22AA626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -148,12 +148,14 @@
 				"lastName",
 				"dateOfBirth",
 				"gender",
+				"residenceStatus",
 				"addressLine1",
-				"province",
 				"region",
 				"district",
-				"commune",
+				"chiefdom",
+				"phone",
 				"proofOfIdentity",
+				"proofOfConsent",
 				"individualBiometrics"
 			],
 			"properties": {
@@ -164,7 +166,7 @@
 					"fieldType": "default",
 					"$ref": "#/definitions/simpleType"
 				},
-				"province": {
+				"region": {
 					"bioAttributes": [],
 					"validators": [
 						{
@@ -178,7 +180,7 @@
 					"fieldType": "default",
 					"$ref": "#/definitions/simpleType"
 				},
-				"region": {
+				"district": {
 					"bioAttributes": [],
 					"validators": [
 						{
@@ -192,7 +194,7 @@
 					"fieldType": "default",
 					"$ref": "#/definitions/simpleType"
 				},
-				"district": {
+				"chiefdom": {
 					"bioAttributes": [],
 					"validators": [
 						{
@@ -206,7 +208,7 @@
 					"fieldType": "default",
 					"$ref": "#/definitions/simpleType"
 				},
-				"commune": {
+				"section": {
 					"bioAttributes": [],
 					"validators": [
 						{
@@ -220,19 +222,19 @@
 					"fieldType": "default",
 					"$ref": "#/definitions/simpleType"
 				},
-				"postalCode": {
+				"village": {
 					"bioAttributes": [],
 					"validators": [
 						{
-							"validator": "^[(?i)A-Z0-9]{5}$|^NA$",
+							"validator": "^(?=.{0,50}$).*",
 							"arguments": [],
 							"type": "regex"
 						}
 					],
 					"fieldCategory": "pvt",
 					"format": "none",
-					"type": "string",
-					"fieldType": "default"
+					"fieldType": "default",
+					"$ref": "#/definitions/simpleType"
 				},
 				"referenceIdentityNumber": {
 					"bioAttributes": [],
@@ -269,42 +271,28 @@
 					"fieldType": "default",
 					"$ref": "#/definitions/biometricsType"
 				},
-				"proofOfException-1": {
-					"bioAttributes": [],
-					"fieldCategory": "evidence",
+				"proofOfAddress": {
+					"bioAttributes": [],
+					"fieldCategory": "pvt",
 					"format": "none",
 					"fieldType": "default",
 					"$ref": "#/definitions/documentType"
 				},
-				"proofOfAddress": {
+				"proofOfDateOfBirth": {
 					"bioAttributes": [],
 					"fieldCategory": "pvt",
 					"format": "none",
 					"fieldType": "default",
 					"$ref": "#/definitions/documentType"
 				},
-				"proofOfDateOfBirth": {
+				"proofOfIdentity": {
 					"bioAttributes": [],
 					"fieldCategory": "pvt",
 					"format": "none",
 					"fieldType": "default",
 					"$ref": "#/definitions/documentType"
 				},
-				"proofOfIdentity": {
-					"bioAttributes": [],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#/definitions/documentType"
-				},
-				"proofOfException": {
-					"bioAttributes": [],
-					"fieldCategory": "evidence",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#/definitions/documentType"
-				},
-				"proofOfRelationship": {
+				"proofOfConsent": {
 					"bioAttributes": [],
 					"fieldCategory": "pvt",
 					"format": "none",
@@ -360,20 +348,6 @@
 					"fieldType": "default",
 					"$ref": "#/definitions/simpleType"
 				},
-				"nationality": {
-					"bioAttributes": [],
-					"validators": [
-						{
-							"validator": "^(?=.{3,50}$).*",
-							"arguments": [],
-							"type": "regex"
-						}
-					],
-					"fieldCategory": "pvt",
-					"format": "none",
-					"fieldType": "default",
-					"$ref": "#/definitions/simpleType"
-				},
 				"email": {
 					"bioAttributes": [],
 					"validators": [
@@ -388,7 +362,7 @@
 					"type": "string",
 					"fieldType": "default"
 				},
-				"introducerRID": {
+				"introducerUIN": {
 					"bioAttributes": [],
 					"fieldCategory": "evidence",
 					"format": "none",
@@ -434,7 +408,21 @@
 					"bioAttributes": [],
 					"validators": [
 						{
-							"validator": "^(?=.{3,50}$).*",
+							"validator": "^(?=.{2,50}$).*",
+							"arguments": [],
+							"type": "regex"
+						}
+					],
+					"fieldCategory": "pvt",
+					"format": "none",
+					"fieldType": "default",
+					"$ref": "#/definitions/simpleType"
+				},
+				"middleName": {
+					"bioAttributes": [],
+					"validators": [
+						{
+							"validator": "^(?=.{2,50}$).*",
 							"arguments": [],
 							"type": "regex"
 						}
@@ -492,13 +480,6 @@
 					"format": "none",
 					"fieldType": "default",
 					"$ref": "#/definitions/biometricsType"
-				},
-				"introducerUIN": {
-					"bioAttributes": [],
-					"fieldCategory": "evidence",
-					"format": "none",
-					"type": "string",
-					"fieldType": "default"
 				},
 				"IDSchemaVersion": {
 					"bioAttributes": [],
@@ -1811,7 +1792,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1819,7 +1800,7 @@
     <col min="1" max="2" width="8.453125" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.453125" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.90625" style="1" customWidth="1"/>
     <col min="6" max="6" width="89.26953125" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.6328125" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.453125" style="1" customWidth="1"/>
